--- a/CMVIP05/class08_excel_driver/data/excel_driver.xlsx
+++ b/CMVIP05/class08_excel_driver/data/excel_driver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23955" windowHeight="12375"/>
+    <workbookView windowWidth="23700" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>测试用例</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>参数</t>
+  </si>
+  <si>
+    <t>关键字：</t>
+  </si>
+  <si>
+    <t>实例：</t>
   </si>
 </sst>
 </file>
@@ -163,6 +169,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -171,7 +214,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,15 +229,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,70 +243,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,24 +275,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +520,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -521,6 +581,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,71 +612,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -629,16 +635,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -647,115 +653,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,10 +1092,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1276,6 +1282,27 @@
         <v>8</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
